--- a/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,17 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 48,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -694,22 +694,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,9%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,13; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,13; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 0,0</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,98%</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,26; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,04; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,26; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,04; 0,0</t>
         </is>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,17 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; 6,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,65; 7,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1254,22 +1254,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,1%</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 1,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 1,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">

--- a/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B10-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,74</t>
+          <t>0,0; 26,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,68</t>
+          <t>0,0; 36,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 0,0</t>
+          <t>-18,86; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 0,0</t>
+          <t>-21,89; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 0,0</t>
+          <t>-18,86; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 0,0</t>
+          <t>-21,89; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 0,0</t>
+          <t>-54,55; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 0,0</t>
+          <t>-44,29; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 0,0</t>
+          <t>-54,55; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,14 +987,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 0,0</t>
+          <t>-44,29; 0,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 0,0</t>
+          <t>-20,3; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 0,0</t>
+          <t>-20,3; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 6,89</t>
+          <t>-10,43; 7,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 7,65</t>
+          <t>-10,78; 8,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 1,22</t>
+          <t>-5,64; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,0</t>
+          <t>-3,73; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,23</t>
+          <t>-5,67; 1,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,0</t>
+          <t>-3,73; 0,0</t>
         </is>
       </c>
     </row>
